--- a/public/template/TemplateSoalBatch.xlsx
+++ b/public/template/TemplateSoalBatch.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Kuliah\Coding\Laravel Project\LangkahEducation\public\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0DB354AF-A65C-41FC-AEAD-FE3990F72965}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7970EB19-3480-4E33-87B7-7795AAA29BB3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B7207DC9-1645-48E7-83E3-DC51A101868A}"/>
   </bookViews>
@@ -36,7 +36,7 @@
     <author>Kukuh Rahmadani</author>
   </authors>
   <commentList>
-    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{48E51E61-F103-45F1-A71E-0BADE74922EA}">
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{48E51E61-F103-45F1-A71E-0BADE74922EA}">
       <text>
         <r>
           <rPr>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Soal</t>
   </si>
@@ -95,6 +95,9 @@
   </si>
   <si>
     <t>Option Benar</t>
+  </si>
+  <si>
+    <t>ID Kategori Soal</t>
   </si>
 </sst>
 </file>
@@ -460,55 +463,59 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C2002A2-5377-41EF-8A7B-C4D0CE76E596}">
-  <dimension ref="A1:J1"/>
+  <dimension ref="A1:K1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.33203125" customWidth="1"/>
-    <col min="2" max="2" width="23.33203125" customWidth="1"/>
-    <col min="3" max="3" width="26.77734375" customWidth="1"/>
-    <col min="4" max="4" width="28.33203125" customWidth="1"/>
-    <col min="5" max="5" width="25.5546875" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" customWidth="1"/>
-    <col min="7" max="7" width="18.33203125" customWidth="1"/>
-    <col min="8" max="8" width="23.33203125" customWidth="1"/>
-    <col min="9" max="9" width="16.6640625" customWidth="1"/>
-    <col min="10" max="10" width="23.109375" customWidth="1"/>
+    <col min="1" max="1" width="20.44140625" customWidth="1"/>
+    <col min="2" max="2" width="24.33203125" customWidth="1"/>
+    <col min="3" max="3" width="23.33203125" customWidth="1"/>
+    <col min="4" max="4" width="26.77734375" customWidth="1"/>
+    <col min="5" max="5" width="28.33203125" customWidth="1"/>
+    <col min="6" max="6" width="25.5546875" customWidth="1"/>
+    <col min="7" max="7" width="15.5546875" customWidth="1"/>
+    <col min="8" max="8" width="18.33203125" customWidth="1"/>
+    <col min="9" max="9" width="23.33203125" customWidth="1"/>
+    <col min="10" max="10" width="16.6640625" customWidth="1"/>
+    <col min="11" max="11" width="23.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>9</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>8</v>
       </c>
     </row>

--- a/public/template/TemplateSoalBatch.xlsx
+++ b/public/template/TemplateSoalBatch.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Kuliah\Coding\Laravel Project\LangkahEducation\public\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7970EB19-3480-4E33-87B7-7795AAA29BB3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9406EA7-BE79-4154-BEE6-3E7FC0083FFE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B7207DC9-1645-48E7-83E3-DC51A101868A}"/>
   </bookViews>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Soal</t>
   </si>
@@ -86,9 +86,6 @@
   </si>
   <si>
     <t>Jawaban E</t>
-  </si>
-  <si>
-    <t>Nilai Benar</t>
   </si>
   <si>
     <t>Nilai Salah</t>
@@ -463,10 +460,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C2002A2-5377-41EF-8A7B-C4D0CE76E596}">
-  <dimension ref="A1:K1"/>
+  <dimension ref="A1:J1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -480,13 +477,12 @@
     <col min="7" max="7" width="15.5546875" customWidth="1"/>
     <col min="8" max="8" width="18.33203125" customWidth="1"/>
     <col min="9" max="9" width="23.33203125" customWidth="1"/>
-    <col min="10" max="10" width="16.6640625" customWidth="1"/>
-    <col min="11" max="11" width="23.109375" customWidth="1"/>
+    <col min="10" max="10" width="23.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -510,13 +506,10 @@
         <v>6</v>
       </c>
       <c r="I1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J1" t="s">
         <v>7</v>
-      </c>
-      <c r="K1" t="s">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
